--- a/output/EventSummary/practitioner-dh-base-1.xlsx
+++ b/output/EventSummary/practitioner-dh-base-1.xlsx
@@ -563,7 +563,7 @@
     <t>Namespace for HPI-I</t>
   </si>
   <si>
-    <t>This namespace is used for qualified identifiers to represent Healthcare Providier Identifier for Individuals (HPI-I) numbers. An example of the syntax of a HPI-I represented as a qualified identifer using this namespace is: http://ns.electronichealth.net.au/id/hi/hpii/1.0/8003610000000000</t>
+    <t>This namespace is used for qualified identifiers to represent Healthcare Provider Identifier for Individuals (HPI-I) numbers. An example of the syntax of a HPI-I represented as a qualified identifer using this namespace is: http://ns.electronichealth.net.au/id/hi/hpii/1.0/8003610000000000</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>

--- a/output/EventSummary/practitioner-dh-base-1.xlsx
+++ b/output/EventSummary/practitioner-dh-base-1.xlsx
@@ -563,7 +563,7 @@
     <t>Namespace for HPI-I</t>
   </si>
   <si>
-    <t>This namespace is used for qualified identifiers to represent Healthcare Provider Identifier for Individuals (HPI-I) numbers. An example of the syntax of a HPI-I represented as a qualified identifer using this namespace is: http://ns.electronichealth.net.au/id/hi/hpii/1.0/8003610000000000</t>
+    <t>This namespace is used for qualified identifiers to represent Healthcare Providier Identifier for Individuals (HPI-I) numbers. An example of the syntax of a HPI-I represented as a qualified identifer using this namespace is: http://ns.electronichealth.net.au/id/hi/hpii/1.0/8003610000000000</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>

--- a/output/EventSummary/practitioner-dh-base-1.xlsx
+++ b/output/EventSummary/practitioner-dh-base-1.xlsx
@@ -153,7 +153,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}inv-dh-prac-01:The practitioner shall at least have an identifier or a name {identifier.exists() or name.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-dh-prac-01:The practitioner shall at least have an identifier or a name {identifier.exists() or name.exists()}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -174,7 +174,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -206,6 +206,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>Practitioner.implicitRules</t>
   </si>
   <si>
@@ -328,6 +332,10 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Practitioner.modifierExtension</t>
   </si>
   <si>
@@ -388,15 +396,11 @@
     <t>National identifier Healthcare Provider Identifier for Individuals (HPI-I).</t>
   </si>
   <si>
-    <t>inv-hpii-0:HPI-I shall be 16 digits {value.matches('^([0-9]{16})$')}
-inv-hpii-1:HPI-I prefix shall be 800361 {value.startsWith('800361')}inv-hpii-2:HPI-I shall pass the Luhn algorithm check {(((select(value.substring(0,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(1,1).toInteger())+(select(value.substring(2,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(3,1).toInteger())+(select(value.substring(4,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(5,1).toInteger())+(select(value.substring(6,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(7,1).toInteger())+(select(value.substring(8,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(9,1).toInteger())+(select(value.substring(10,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(11,1).toInteger())+(select(value.substring(12,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(13,1).toInteger())+(select(value.substring(14,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(15,1).toInteger()))mod 10=0)}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+inv-hpii-0:HPI-I shall be 16 digits {value.matches('^([0-9]{16})$')}inv-hpii-1:HPI-I prefix shall be 800361 {value.startsWith('800361')}inv-hpii-2:HPI-I shall pass the Luhn algorithm check {(((select(value.substring(0,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(1,1).toInteger())+(select(value.substring(2,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(3,1).toInteger())+(select(value.substring(4,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(5,1).toInteger())+(select(value.substring(6,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(7,1).toInteger())+(select(value.substring(8,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(9,1).toInteger())+(select(value.substring(10,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(11,1).toInteger())+(select(value.substring(12,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(13,1).toInteger())+(select(value.substring(14,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(15,1).toInteger()))mod 10=0)}</t>
   </si>
   <si>
     <t>Practitioner.identifier.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -448,7 +452,7 @@
     <t>Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -563,7 +567,7 @@
     <t>Namespace for HPI-I</t>
   </si>
   <si>
-    <t>This namespace is used for qualified identifiers to represent Healthcare Provider Identifier for Individuals (HPI-I) numbers. An example of the syntax of a HPI-I represented as a qualified identifer using this namespace is: http://ns.electronichealth.net.au/id/hi/hpii/1.0/8003610000000000</t>
+    <t>This namespace is used for qualified identifiers to represent Healthcare Provider Identifier for Individuals (HPI-I) numbers. An example of the syntax of a HPI-I represented as a qualified identifer using this namespace is: http://ns.electronichealth.net.au/id/hi/hpii/1.0/8003610000000000.</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>
@@ -720,8 +724,8 @@
     <t>An identifier that applies to this person in this role. This identifier is used for qualified identifiers to represent a My Health Record Care Agency Employees Identifier (CAE-I) numbers.</t>
   </si>
   <si>
-    <t>inv-caei-0:CAE identifier shall be 16 digits {value.matches('^([0-9]{16})$')}
-inv-caei-1:CAE identifier prefix shall be 900360 {value.startsWith('900360')}inv-caei-2:CAE identifier shall pass the Luhn algorithm check {(((select(value.substring(0,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(1,1).toInteger())+(select(value.substring(2,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(3,1).toInteger())+(select(value.substring(4,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(5,1).toInteger())+(select(value.substring(6,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(7,1).toInteger())+(select(value.substring(8,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(9,1).toInteger())+(select(value.substring(10,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(11,1).toInteger())+(select(value.substring(12,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(13,1).toInteger())+(select(value.substring(14,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(15,1).toInteger()))mod 10=0)}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+inv-caei-0:CAE identifier shall be 16 digits {value.matches('^([0-9]{16})$')}inv-caei-1:CAE identifier prefix shall be 900360 {value.startsWith('900360')}inv-caei-2:CAE identifier shall pass the Luhn algorithm check {(((select(value.substring(0,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(1,1).toInteger())+(select(value.substring(2,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(3,1).toInteger())+(select(value.substring(4,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(5,1).toInteger())+(select(value.substring(6,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(7,1).toInteger())+(select(value.substring(8,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(9,1).toInteger())+(select(value.substring(10,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(11,1).toInteger())+(select(value.substring(12,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(13,1).toInteger())+(select(value.substring(14,1).toInteger()).select(iif($this&lt;5, $this*2, (($this*2)-9))))+(value.substring(15,1).toInteger()))mod 10=0)}</t>
   </si>
   <si>
     <t>Identifier type for CAE identifier</t>
@@ -748,8 +752,8 @@
     <t>Details of registration identifier of the Australian Health Practitioner Regulation Authority (AHPRA).</t>
   </si>
   <si>
-    <t xml:space="preserve">inv-ahpra-0:AHPRA identifier shall be 3 uppercase letters, followed by 10 digits {value.matches('^[A-Z]{3}[0-9]{10}$')}
-</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+inv-ahpra-0:AHPRA identifier shall be 3 uppercase letters, followed by 10 digits {value.matches('^[A-Z]{3}[0-9]{10}$')}</t>
   </si>
   <si>
     <t>Description of identifier</t>
@@ -911,7 +915,7 @@
     <t>The gender of a person used for administrative purposes.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
   </si>
   <si>
     <t>STF-5</t>
@@ -1095,12 +1099,8 @@
     <t>Details of registration with the Australian Health Practitioner Regulation Authority (AHPRA).</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv-ahpra-1:AHPRA registration value shall be 3 uppercase letters, followed by 10 digits {value.matches('^[A-Z]{3}[0-9]{10}$')}
-</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+inv-ahpra-1:AHPRA registration value shall be 3 uppercase letters, followed by 10 digits {value.matches('^[A-Z]{3}[0-9]{10}$')}</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.id</t>
@@ -1914,7 +1914,7 @@
         <v>40</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>40</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1954,16 +1954,16 @@
         <v>51</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2013,7 +2013,7 @@
         <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>41</v>
@@ -2025,7 +2025,7 @@
         <v>40</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>40</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2065,16 +2065,16 @@
         <v>40</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2100,13 +2100,13 @@
         <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>40</v>
@@ -2124,7 +2124,7 @@
         <v>40</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>41</v>
@@ -2136,7 +2136,7 @@
         <v>40</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>40</v>
@@ -2153,11 +2153,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2176,16 +2176,16 @@
         <v>40</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2235,7 +2235,7 @@
         <v>40</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>41</v>
@@ -2247,13 +2247,13 @@
         <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>40</v>
@@ -2264,11 +2264,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2287,16 +2287,16 @@
         <v>40</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2346,7 +2346,7 @@
         <v>40</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>41</v>
@@ -2364,7 +2364,7 @@
         <v>40</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>40</v>
@@ -2375,11 +2375,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2398,16 +2398,16 @@
         <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2457,7 +2457,7 @@
         <v>40</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
@@ -2469,13 +2469,13 @@
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>40</v>
@@ -2486,11 +2486,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2509,19 +2509,19 @@
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>40</v>
@@ -2570,7 +2570,7 @@
         <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -2582,13 +2582,13 @@
         <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>40</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2622,17 +2622,17 @@
         <v>51</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>40</v>
@@ -2669,17 +2669,17 @@
         <v>40</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -2691,27 +2691,27 @@
         <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>40</v>
@@ -2733,17 +2733,17 @@
         <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>40</v>
@@ -2792,7 +2792,7 @@
         <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
@@ -2804,24 +2804,24 @@
         <v>40</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2844,13 +2844,13 @@
         <v>40</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2901,7 +2901,7 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -2919,7 +2919,7 @@
         <v>40</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>40</v>
@@ -2930,11 +2930,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2953,16 +2953,16 @@
         <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3000,19 +3000,19 @@
         <v>40</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -3024,13 +3024,13 @@
         <v>40</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -3041,7 +3041,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3064,19 +3064,19 @@
         <v>51</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -3101,13 +3101,13 @@
         <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>40</v>
@@ -3125,7 +3125,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -3137,13 +3137,13 @@
         <v>40</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -3154,7 +3154,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3177,19 +3177,19 @@
         <v>51</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -3199,7 +3199,7 @@
         <v>40</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>40</v>
@@ -3214,13 +3214,13 @@
         <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>40</v>
@@ -3238,7 +3238,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3250,13 +3250,13 @@
         <v>40</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>40</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3290,13 +3290,13 @@
         <v>40</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3347,7 +3347,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3365,7 +3365,7 @@
         <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>40</v>
@@ -3376,11 +3376,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3399,16 +3399,16 @@
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3446,19 +3446,19 @@
         <v>40</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3470,13 +3470,13 @@
         <v>40</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3510,19 +3510,19 @@
         <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>40</v>
@@ -3571,7 +3571,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3583,13 +3583,13 @@
         <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3600,7 +3600,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3623,26 +3623,26 @@
         <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>40</v>
@@ -3684,7 +3684,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3696,13 +3696,13 @@
         <v>40</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3736,32 +3736,32 @@
         <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>40</v>
@@ -3797,7 +3797,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3809,16 +3809,16 @@
         <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>40</v>
@@ -3826,7 +3826,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3849,16 +3849,16 @@
         <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3872,7 +3872,7 @@
         <v>40</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>40</v>
@@ -3881,7 +3881,7 @@
         <v>40</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="W22" t="s" s="2">
         <v>40</v>
@@ -3908,7 +3908,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3920,16 +3920,16 @@
         <v>40</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>40</v>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3960,13 +3960,13 @@
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4017,7 +4017,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -4029,16 +4029,16 @@
         <v>40</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>40</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4069,16 +4069,16 @@
         <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4128,7 +4128,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4140,16 +4140,16 @@
         <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>40</v>
@@ -4157,10 +4157,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>40</v>
@@ -4182,17 +4182,17 @@
         <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4241,7 +4241,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4253,24 +4253,24 @@
         <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4293,13 +4293,13 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4350,7 +4350,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4368,7 +4368,7 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
@@ -4379,11 +4379,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4402,16 +4402,16 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4449,19 +4449,19 @@
         <v>40</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4473,13 +4473,13 @@
         <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
@@ -4490,7 +4490,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4513,19 +4513,19 @@
         <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4550,13 +4550,13 @@
         <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
@@ -4574,7 +4574,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4586,13 +4586,13 @@
         <v>40</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4626,19 +4626,19 @@
         <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4648,7 +4648,7 @@
         <v>40</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>40</v>
@@ -4663,13 +4663,13 @@
         <v>40</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>40</v>
@@ -4687,7 +4687,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4699,13 +4699,13 @@
         <v>40</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
@@ -4716,7 +4716,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4739,13 +4739,13 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4796,7 +4796,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4814,7 +4814,7 @@
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
@@ -4825,11 +4825,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4848,16 +4848,16 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4895,19 +4895,19 @@
         <v>40</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4919,13 +4919,13 @@
         <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -4936,7 +4936,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4959,19 +4959,19 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -5020,7 +5020,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5032,13 +5032,13 @@
         <v>40</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
@@ -5049,7 +5049,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5072,26 +5072,26 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>40</v>
@@ -5133,7 +5133,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5145,13 +5145,13 @@
         <v>40</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
@@ -5162,7 +5162,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5185,32 +5185,32 @@
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>40</v>
@@ -5246,7 +5246,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5258,16 +5258,16 @@
         <v>40</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>40</v>
@@ -5275,7 +5275,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5298,16 +5298,16 @@
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5321,7 +5321,7 @@
         <v>40</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>40</v>
@@ -5357,7 +5357,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5369,16 +5369,16 @@
         <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5409,13 +5409,13 @@
         <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5466,7 +5466,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5478,16 +5478,16 @@
         <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5518,16 +5518,16 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5577,7 +5577,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5589,16 +5589,16 @@
         <v>40</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
@@ -5606,10 +5606,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>40</v>
@@ -5631,17 +5631,17 @@
         <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5690,7 +5690,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5702,24 +5702,24 @@
         <v>40</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5742,13 +5742,13 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5799,7 +5799,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5817,7 +5817,7 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
@@ -5828,11 +5828,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5851,16 +5851,16 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5898,19 +5898,19 @@
         <v>40</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5922,13 +5922,13 @@
         <v>40</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
@@ -5939,7 +5939,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5962,19 +5962,19 @@
         <v>51</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -5999,13 +5999,13 @@
         <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>40</v>
@@ -6023,7 +6023,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -6035,13 +6035,13 @@
         <v>40</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
@@ -6052,7 +6052,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6075,19 +6075,19 @@
         <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -6112,13 +6112,13 @@
         <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>40</v>
@@ -6136,7 +6136,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6148,13 +6148,13 @@
         <v>40</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
@@ -6165,7 +6165,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6188,13 +6188,13 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6245,7 +6245,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6263,7 +6263,7 @@
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
@@ -6274,11 +6274,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6297,16 +6297,16 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6344,19 +6344,19 @@
         <v>40</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6368,13 +6368,13 @@
         <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
@@ -6385,7 +6385,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6408,19 +6408,19 @@
         <v>51</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>40</v>
@@ -6469,7 +6469,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6481,13 +6481,13 @@
         <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
@@ -6498,7 +6498,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6521,26 +6521,26 @@
         <v>51</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R46" t="s" s="2">
         <v>40</v>
@@ -6582,7 +6582,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6594,13 +6594,13 @@
         <v>40</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>40</v>
@@ -6611,7 +6611,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6634,32 +6634,32 @@
         <v>51</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>40</v>
@@ -6695,7 +6695,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6707,16 +6707,16 @@
         <v>40</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>40</v>
@@ -6724,7 +6724,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6747,16 +6747,16 @@
         <v>51</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6770,7 +6770,7 @@
         <v>40</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>40</v>
@@ -6806,7 +6806,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6818,16 +6818,16 @@
         <v>40</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>40</v>
@@ -6835,7 +6835,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6858,13 +6858,13 @@
         <v>51</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6915,7 +6915,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6927,16 +6927,16 @@
         <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>40</v>
@@ -6944,7 +6944,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6967,16 +6967,16 @@
         <v>51</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7026,7 +7026,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7038,16 +7038,16 @@
         <v>40</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>40</v>
@@ -7055,10 +7055,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>40</v>
@@ -7080,17 +7080,17 @@
         <v>51</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -7139,7 +7139,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7151,24 +7151,24 @@
         <v>40</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7191,13 +7191,13 @@
         <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7248,7 +7248,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7266,7 +7266,7 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
@@ -7277,11 +7277,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7300,16 +7300,16 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7347,19 +7347,19 @@
         <v>40</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7371,13 +7371,13 @@
         <v>40</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
@@ -7388,7 +7388,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7411,19 +7411,19 @@
         <v>51</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7448,13 +7448,13 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>40</v>
@@ -7472,7 +7472,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7484,13 +7484,13 @@
         <v>40</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
@@ -7501,7 +7501,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7524,19 +7524,19 @@
         <v>51</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>40</v>
@@ -7546,7 +7546,7 @@
         <v>40</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S55" t="s" s="2">
         <v>40</v>
@@ -7561,13 +7561,13 @@
         <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>40</v>
@@ -7585,7 +7585,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7597,13 +7597,13 @@
         <v>40</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
@@ -7614,7 +7614,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7637,13 +7637,13 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7694,7 +7694,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7712,7 +7712,7 @@
         <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
@@ -7723,11 +7723,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7746,16 +7746,16 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7793,19 +7793,19 @@
         <v>40</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7817,13 +7817,13 @@
         <v>40</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
@@ -7834,7 +7834,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7857,19 +7857,19 @@
         <v>51</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>40</v>
@@ -7918,7 +7918,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7930,13 +7930,13 @@
         <v>40</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
@@ -7947,7 +7947,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7970,26 +7970,26 @@
         <v>51</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>40</v>
@@ -8031,7 +8031,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8043,13 +8043,13 @@
         <v>40</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
@@ -8060,7 +8060,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8083,32 +8083,32 @@
         <v>51</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>40</v>
@@ -8144,7 +8144,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8156,16 +8156,16 @@
         <v>40</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>40</v>
@@ -8173,7 +8173,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8196,16 +8196,16 @@
         <v>51</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8219,7 +8219,7 @@
         <v>40</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>40</v>
@@ -8255,7 +8255,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8267,16 +8267,16 @@
         <v>40</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>40</v>
@@ -8284,7 +8284,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8307,13 +8307,13 @@
         <v>51</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8364,7 +8364,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8376,16 +8376,16 @@
         <v>40</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>40</v>
@@ -8393,7 +8393,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8416,16 +8416,16 @@
         <v>51</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8475,7 +8475,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8487,16 +8487,16 @@
         <v>40</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>40</v>
@@ -8504,7 +8504,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8527,71 +8527,71 @@
         <v>51</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Q64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE64" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K64" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P64" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="Q64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
@@ -8602,24 +8602,24 @@
         <v>40</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8642,19 +8642,19 @@
         <v>51</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>40</v>
@@ -8703,7 +8703,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8715,16 +8715,16 @@
         <v>40</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>40</v>
@@ -8732,7 +8732,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8755,19 +8755,19 @@
         <v>51</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>40</v>
@@ -8816,7 +8816,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8828,16 +8828,16 @@
         <v>40</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>40</v>
@@ -8845,7 +8845,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8868,19 +8868,19 @@
         <v>51</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>40</v>
@@ -8929,7 +8929,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -8941,16 +8941,16 @@
         <v>40</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>40</v>
@@ -8958,7 +8958,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8981,17 +8981,17 @@
         <v>51</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>40</v>
@@ -9016,13 +9016,13 @@
         <v>40</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>40</v>
@@ -9040,7 +9040,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9052,16 +9052,16 @@
         <v>40</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>40</v>
@@ -9069,7 +9069,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9092,17 +9092,17 @@
         <v>51</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>40</v>
@@ -9151,7 +9151,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9163,16 +9163,16 @@
         <v>40</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>40</v>
@@ -9180,7 +9180,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9203,17 +9203,17 @@
         <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>40</v>
@@ -9262,7 +9262,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9274,16 +9274,16 @@
         <v>40</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>40</v>
@@ -9291,7 +9291,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9314,13 +9314,13 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9359,17 +9359,17 @@
         <v>40</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AB71" s="2"/>
       <c r="AC71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9381,16 +9381,16 @@
         <v>40</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>40</v>
@@ -9398,7 +9398,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9421,13 +9421,13 @@
         <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9478,7 +9478,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9496,7 +9496,7 @@
         <v>40</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>40</v>
@@ -9507,11 +9507,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9530,16 +9530,16 @@
         <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -9589,7 +9589,7 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9601,13 +9601,13 @@
         <v>40</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>40</v>
@@ -9618,11 +9618,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9641,19 +9641,19 @@
         <v>51</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>40</v>
@@ -9702,7 +9702,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9714,13 +9714,13 @@
         <v>40</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>40</v>
@@ -9731,7 +9731,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9754,17 +9754,17 @@
         <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>40</v>
@@ -9813,7 +9813,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -9825,13 +9825,13 @@
         <v>40</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
@@ -9842,7 +9842,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9865,13 +9865,13 @@
         <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9898,13 +9898,13 @@
         <v>40</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>40</v>
@@ -9922,7 +9922,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>50</v>
@@ -9934,16 +9934,16 @@
         <v>40</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>40</v>
@@ -9951,7 +9951,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9974,17 +9974,17 @@
         <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>40</v>
@@ -10033,7 +10033,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -10045,16 +10045,16 @@
         <v>40</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>40</v>
@@ -10062,7 +10062,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10085,13 +10085,13 @@
         <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10142,7 +10142,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10154,13 +10154,13 @@
         <v>40</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>40</v>
@@ -10171,10 +10171,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>40</v>
@@ -10196,13 +10196,13 @@
         <v>40</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10253,7 +10253,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10265,16 +10265,16 @@
         <v>40</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>340</v>
+        <v>62</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>40</v>
@@ -10282,7 +10282,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10305,13 +10305,13 @@
         <v>40</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10362,7 +10362,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10380,7 +10380,7 @@
         <v>40</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>40</v>
@@ -10391,11 +10391,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10414,16 +10414,16 @@
         <v>40</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -10473,7 +10473,7 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -10485,13 +10485,13 @@
         <v>40</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>40</v>
@@ -10502,11 +10502,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10525,19 +10525,19 @@
         <v>51</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>40</v>
@@ -10586,7 +10586,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10598,13 +10598,13 @@
         <v>40</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>40</v>
@@ -10615,7 +10615,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10638,17 +10638,17 @@
         <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>40</v>
@@ -10697,7 +10697,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -10715,7 +10715,7 @@
         <v>40</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>40</v>
@@ -10749,13 +10749,13 @@
         <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10806,7 +10806,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -10824,7 +10824,7 @@
         <v>40</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>40</v>
@@ -10839,7 +10839,7 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -10858,16 +10858,16 @@
         <v>40</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -10905,19 +10905,19 @@
         <v>40</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -10929,13 +10929,13 @@
         <v>40</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>40</v>
@@ -10969,19 +10969,19 @@
         <v>51</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>40</v>
@@ -11006,13 +11006,13 @@
         <v>40</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>40</v>
@@ -11030,7 +11030,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -11042,13 +11042,13 @@
         <v>40</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>40</v>
@@ -11082,19 +11082,19 @@
         <v>51</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>346</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>40</v>
@@ -11104,7 +11104,7 @@
         <v>40</v>
       </c>
       <c r="R87" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>40</v>
@@ -11119,13 +11119,13 @@
         <v>40</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>40</v>
@@ -11143,7 +11143,7 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
@@ -11155,13 +11155,13 @@
         <v>40</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>40</v>
@@ -11195,13 +11195,13 @@
         <v>40</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11252,7 +11252,7 @@
         <v>40</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
@@ -11270,7 +11270,7 @@
         <v>40</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>40</v>
@@ -11285,7 +11285,7 @@
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11304,16 +11304,16 @@
         <v>40</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -11351,19 +11351,19 @@
         <v>40</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AC89" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -11375,13 +11375,13 @@
         <v>40</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>40</v>
@@ -11415,19 +11415,19 @@
         <v>51</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>40</v>
@@ -11476,7 +11476,7 @@
         <v>40</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -11488,13 +11488,13 @@
         <v>40</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>40</v>
@@ -11528,26 +11528,26 @@
         <v>51</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>40</v>
@@ -11589,7 +11589,7 @@
         <v>40</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -11601,13 +11601,13 @@
         <v>40</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>40</v>
@@ -11641,32 +11641,32 @@
         <v>51</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>352</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="R92" t="s" s="2">
         <v>40</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>40</v>
@@ -11702,7 +11702,7 @@
         <v>40</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
@@ -11714,16 +11714,16 @@
         <v>40</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>40</v>
@@ -11754,16 +11754,16 @@
         <v>51</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>354</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -11777,7 +11777,7 @@
         <v>40</v>
       </c>
       <c r="S93" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="T93" t="s" s="2">
         <v>40</v>
@@ -11813,7 +11813,7 @@
         <v>40</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>41</v>
@@ -11825,16 +11825,16 @@
         <v>40</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>40</v>
@@ -11865,13 +11865,13 @@
         <v>51</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11922,7 +11922,7 @@
         <v>40</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>41</v>
@@ -11934,16 +11934,16 @@
         <v>40</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>40</v>
@@ -11974,16 +11974,16 @@
         <v>51</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -12033,7 +12033,7 @@
         <v>40</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>41</v>
@@ -12045,16 +12045,16 @@
         <v>40</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>40</v>
@@ -12062,7 +12062,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12085,7 +12085,7 @@
         <v>40</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>357</v>
@@ -12118,13 +12118,13 @@
         <v>40</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>40</v>
@@ -12142,7 +12142,7 @@
         <v>40</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>50</v>
@@ -12154,16 +12154,16 @@
         <v>40</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>40</v>
@@ -12194,13 +12194,13 @@
         <v>40</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12251,7 +12251,7 @@
         <v>40</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>41</v>
@@ -12269,7 +12269,7 @@
         <v>40</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>40</v>
@@ -12284,7 +12284,7 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12303,16 +12303,16 @@
         <v>40</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -12350,19 +12350,19 @@
         <v>40</v>
       </c>
       <c r="AA98" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AC98" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD98" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>41</v>
@@ -12374,13 +12374,13 @@
         <v>40</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>40</v>
@@ -12414,19 +12414,19 @@
         <v>51</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>40</v>
@@ -12475,7 +12475,7 @@
         <v>40</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>41</v>
@@ -12487,13 +12487,13 @@
         <v>40</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>40</v>
@@ -12527,19 +12527,19 @@
         <v>51</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>363</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>40</v>
@@ -12588,7 +12588,7 @@
         <v>40</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>41</v>
@@ -12600,13 +12600,13 @@
         <v>40</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>40</v>
@@ -12617,7 +12617,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12640,17 +12640,17 @@
         <v>40</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>40</v>
@@ -12699,7 +12699,7 @@
         <v>40</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>41</v>
@@ -12711,16 +12711,16 @@
         <v>40</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>40</v>
@@ -12728,7 +12728,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12751,13 +12751,13 @@
         <v>40</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12808,7 +12808,7 @@
         <v>40</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>41</v>
@@ -12820,13 +12820,13 @@
         <v>40</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>40</v>
@@ -12860,13 +12860,13 @@
         <v>40</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -12917,7 +12917,7 @@
         <v>40</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>41</v>
@@ -12935,7 +12935,7 @@
         <v>40</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>40</v>
@@ -12950,7 +12950,7 @@
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -12969,16 +12969,16 @@
         <v>40</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -13016,19 +13016,19 @@
         <v>40</v>
       </c>
       <c r="AA104" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AC104" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD104" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>41</v>
@@ -13040,13 +13040,13 @@
         <v>40</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>40</v>
@@ -13080,7 +13080,7 @@
         <v>51</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>367</v>
@@ -13151,13 +13151,13 @@
         <v>371</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>40</v>
@@ -13191,7 +13191,7 @@
         <v>51</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K106" t="s" s="2">
         <v>373</v>
@@ -13262,13 +13262,13 @@
         <v>40</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>40</v>
@@ -13302,7 +13302,7 @@
         <v>51</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K107" t="s" s="2">
         <v>381</v>
@@ -13373,7 +13373,7 @@
         <v>40</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>40</v>
@@ -13413,7 +13413,7 @@
         <v>51</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>387</v>
@@ -13484,13 +13484,13 @@
         <v>40</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>40</v>
@@ -13524,7 +13524,7 @@
         <v>40</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K109" t="s" s="2">
         <v>393</v>
@@ -13595,7 +13595,7 @@
         <v>40</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>398</v>

--- a/output/EventSummary/practitioner-dh-base-1.xlsx
+++ b/output/EventSummary/practitioner-dh-base-1.xlsx
@@ -9729,7 +9729,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>317</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>42</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>40</v>
@@ -9840,7 +9840,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
         <v>322</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>50</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>40</v>
@@ -9949,7 +9949,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>329</v>
       </c>
@@ -9965,7 +9965,7 @@
         <v>50</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>40</v>
@@ -10060,7 +10060,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
         <v>335</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>50</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>40</v>

--- a/output/EventSummary/practitioner-dh-base-1.xlsx
+++ b/output/EventSummary/practitioner-dh-base-1.xlsx
@@ -9729,7 +9729,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
         <v>317</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>42</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>40</v>
@@ -9840,7 +9840,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
         <v>322</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>50</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>40</v>
@@ -9949,7 +9949,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
         <v>329</v>
       </c>
@@ -9965,7 +9965,7 @@
         <v>50</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>40</v>
@@ -10060,7 +10060,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
         <v>335</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>50</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>40</v>

--- a/output/EventSummary/practitioner-dh-base-1.xlsx
+++ b/output/EventSummary/practitioner-dh-base-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3830" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3830" uniqueCount="402">
   <si>
     <t>Path</t>
   </si>
@@ -146,7 +146,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>A practitioner in an Australian healthcare context</t>
+    <t>A person with a formal responsibility in the provisioning of services</t>
   </si>
   <si>
     <t>A person who is directly or indirectly involved in the provisioning of healthcare.</t>
@@ -799,6 +799,9 @@
   </si>
   <si>
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>./statusCode</t>
@@ -992,7 +995,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-inv-dh-prac-02:If present, an issuer shall at least have a reference, an identifier or a display {issuer.exists() implies issuer.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}inv-dh-prac-03:If present, an issuer organisation shall conform to Base Organization {issuer.reference.exists() implies issuer.all($this.reference.resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/organization-dh-base-1'))}</t>
+inv-dh-prac-02:If present, an issuer shall at least have a reference that conforms to Base Organization, an identifier or a display {issuer.exists() implies issuer.all(($this.reference.resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/organization-dh-base-1')) or $this.identifier.exists() or $this.display.exists())}</t>
   </si>
   <si>
     <t>CER?</t>
@@ -8502,7 +8505,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
         <v>241</v>
       </c>
@@ -8518,7 +8521,7 @@
         <v>50</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>40</v>
@@ -8548,7 +8551,7 @@
         <v>247</v>
       </c>
       <c r="Q64" t="s" s="2">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>40</v>
@@ -8608,18 +8611,18 @@
         <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8642,19 +8645,19 @@
         <v>51</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>40</v>
@@ -8703,7 +8706,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8718,13 +8721,13 @@
         <v>62</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>40</v>
@@ -8732,7 +8735,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8755,19 +8758,19 @@
         <v>51</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>40</v>
@@ -8816,7 +8819,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8831,13 +8834,13 @@
         <v>62</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>40</v>
@@ -8845,7 +8848,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8868,19 +8871,19 @@
         <v>51</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>40</v>
@@ -8929,7 +8932,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -8944,13 +8947,13 @@
         <v>62</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>40</v>
@@ -8958,7 +8961,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8984,14 +8987,14 @@
         <v>70</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>40</v>
@@ -9019,10 +9022,10 @@
         <v>137</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>40</v>
@@ -9040,7 +9043,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9055,21 +9058,21 @@
         <v>62</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9083,7 +9086,7 @@
         <v>50</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>40</v>
@@ -9092,17 +9095,17 @@
         <v>51</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>40</v>
@@ -9151,7 +9154,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9166,13 +9169,13 @@
         <v>62</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>40</v>
@@ -9180,7 +9183,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9203,17 +9206,17 @@
         <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>40</v>
@@ -9262,7 +9265,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9280,10 +9283,10 @@
         <v>40</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>40</v>
@@ -9291,7 +9294,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9314,13 +9317,13 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9359,7 +9362,7 @@
         <v>40</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AB71" s="2"/>
       <c r="AC71" t="s" s="2">
@@ -9369,7 +9372,7 @@
         <v>113</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9381,16 +9384,16 @@
         <v>40</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>40</v>
@@ -9398,7 +9401,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9507,7 +9510,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9618,11 +9621,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9644,10 +9647,10 @@
         <v>96</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>99</v>
@@ -9702,7 +9705,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9731,7 +9734,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9757,14 +9760,14 @@
         <v>108</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>40</v>
@@ -9813,7 +9816,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -9831,7 +9834,7 @@
         <v>40</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
@@ -9842,7 +9845,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9868,10 +9871,10 @@
         <v>143</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9898,13 +9901,13 @@
         <v>40</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>40</v>
@@ -9922,7 +9925,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>50</v>
@@ -9940,10 +9943,10 @@
         <v>40</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>40</v>
@@ -9951,7 +9954,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9977,14 +9980,14 @@
         <v>195</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>40</v>
@@ -10033,7 +10036,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -10051,10 +10054,10 @@
         <v>40</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>40</v>
@@ -10062,7 +10065,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10088,10 +10091,10 @@
         <v>203</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10142,7 +10145,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10160,7 +10163,7 @@
         <v>40</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>40</v>
@@ -10171,7 +10174,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>231</v>
@@ -10196,13 +10199,13 @@
         <v>40</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10253,7 +10256,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10268,13 +10271,13 @@
         <v>62</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>40</v>
@@ -10282,7 +10285,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10391,7 +10394,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10502,11 +10505,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10528,10 +10531,10 @@
         <v>96</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>99</v>
@@ -10586,7 +10589,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10615,7 +10618,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10644,11 +10647,11 @@
         <v>237</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>40</v>
@@ -10697,7 +10700,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -10709,13 +10712,13 @@
         <v>40</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>40</v>
@@ -10726,7 +10729,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10835,7 +10838,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10946,7 +10949,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11059,7 +11062,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11085,7 +11088,7 @@
         <v>143</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L87" t="s" s="2">
         <v>145</v>
@@ -11172,7 +11175,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11281,7 +11284,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11392,7 +11395,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11505,7 +11508,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11618,7 +11621,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11644,7 +11647,7 @@
         <v>64</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L92" t="s" s="2">
         <v>219</v>
@@ -11731,7 +11734,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11757,7 +11760,7 @@
         <v>52</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L93" t="s" s="2">
         <v>186</v>
@@ -11842,7 +11845,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11951,7 +11954,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12062,7 +12065,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12088,10 +12091,10 @@
         <v>143</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -12118,13 +12121,13 @@
         <v>40</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>40</v>
@@ -12142,7 +12145,7 @@
         <v>40</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>50</v>
@@ -12160,10 +12163,10 @@
         <v>40</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>40</v>
@@ -12171,7 +12174,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12280,7 +12283,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12391,7 +12394,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12504,7 +12507,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12530,7 +12533,7 @@
         <v>52</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L100" t="s" s="2">
         <v>166</v>
@@ -12617,7 +12620,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12643,14 +12646,14 @@
         <v>195</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>40</v>
@@ -12699,7 +12702,7 @@
         <v>40</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>41</v>
@@ -12717,10 +12720,10 @@
         <v>40</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>40</v>
@@ -12728,7 +12731,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12754,10 +12757,10 @@
         <v>203</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12808,7 +12811,7 @@
         <v>40</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>41</v>
@@ -12826,7 +12829,7 @@
         <v>40</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>40</v>
@@ -12837,7 +12840,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12946,7 +12949,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13057,7 +13060,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13083,13 +13086,13 @@
         <v>52</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -13139,7 +13142,7 @@
         <v>40</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>41</v>
@@ -13148,7 +13151,7 @@
         <v>50</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>62</v>
@@ -13168,7 +13171,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13194,13 +13197,13 @@
         <v>64</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -13226,13 +13229,13 @@
         <v>40</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>40</v>
@@ -13250,7 +13253,7 @@
         <v>40</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>41</v>
@@ -13279,7 +13282,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13305,13 +13308,13 @@
         <v>108</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -13361,7 +13364,7 @@
         <v>40</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>41</v>
@@ -13379,7 +13382,7 @@
         <v>40</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>40</v>
@@ -13390,7 +13393,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13416,13 +13419,13 @@
         <v>52</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
@@ -13430,7 +13433,7 @@
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="R108" t="s" s="2">
         <v>40</v>
@@ -13472,7 +13475,7 @@
         <v>40</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>41</v>
@@ -13501,7 +13504,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13527,16 +13530,16 @@
         <v>143</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>40</v>
@@ -13561,11 +13564,11 @@
         <v>40</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="X109" s="2"/>
       <c r="Y109" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>40</v>
@@ -13583,7 +13586,7 @@
         <v>40</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>41</v>
@@ -13598,13 +13601,13 @@
         <v>62</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>40</v>
